--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345711.8045855004</v>
+        <v>341574.3214505863</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33940801.53424101</v>
+        <v>33940801.534241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021569</v>
+        <v>6660456.462021572</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5859242872235454</v>
       </c>
       <c r="C2" t="n">
-        <v>20.5471255801259</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.32779925082415</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="E3" t="n">
-        <v>20.5471255801259</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="G3" t="n">
-        <v>23.32779925082415</v>
+        <v>20.54712558012605</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.70124719403655</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="T4" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="U4" t="n">
-        <v>23.32779925082415</v>
+        <v>0.8458783860895016</v>
       </c>
       <c r="V4" t="n">
-        <v>23.32779925082415</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>20.54712558012589</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430769696</v>
       </c>
       <c r="X5" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.06736141641883</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>36.39025468426205</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>17.84229754998328</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>17.8422975499833</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>187.8691367869459</v>
       </c>
       <c r="X11" t="n">
-        <v>39.86811692413174</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>60.93349615186474</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>124.9554984777215</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>189.6554371447627</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>234.4178403718962</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>153.3286876839811</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>252.4843751595153</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.67245031177164</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>61.19617440684117</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.54231102287985</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>111.0530229659796</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -2140,16 +2140,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>96.69790551455996</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>100.1093297548541</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>209.8676550916613</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>178.2458504560635</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>125.1711461495663</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>126.0809427646072</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.6615473203999</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>149.6157531058527</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.56435954012376</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2721,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -2769,10 +2769,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>76.27908990958373</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>176.1446634785943</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>54.86822734918454</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>132.9134719675672</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -3006,13 +3006,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>88.24074300591387</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>130.7837217554834</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>141.8733179420227</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>74.33737969386161</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7335122538385</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.0215175726363</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>158.2534696142547</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3441,10 +3441,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>6.122931086761201</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>52.46272922979684</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>149.6157531058528</v>
+        <v>222.0215175726363</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.0178285439546</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,7 +3678,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,16 +3720,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>6.12293108676132</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>302.8196695381251</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>126.1536952093196</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>21.78869975404421</v>
       </c>
       <c r="D43" t="n">
-        <v>118.3474735769335</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>384.0172924583158</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>196.3272109511618</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4140,16 +4140,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>30.80498927785631</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>185.0832217507338</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.31119700329658</v>
+        <v>72.55652470013963</v>
       </c>
       <c r="C2" t="n">
-        <v>72.55652470013911</v>
+        <v>72.55652470013963</v>
       </c>
       <c r="D2" t="n">
-        <v>48.99309111344805</v>
+        <v>48.9930911134484</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42965752675699</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940065932</v>
+        <v>1.866223940065945</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940065932</v>
+        <v>1.866223940065945</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940065932</v>
+        <v>1.866223940065945</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394745912</v>
+        <v>4.300780394745916</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922366</v>
+        <v>10.5597898192237</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570046</v>
+        <v>19.94042246570058</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593474</v>
+        <v>31.57792675593495</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258583888</v>
+        <v>44.5268925858392</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622059786</v>
+        <v>57.68538622059828</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895115</v>
+        <v>70.11057862895166</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249456</v>
+        <v>80.71519288249515</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654690872</v>
+        <v>88.67881654690936</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700329658</v>
+        <v>92.49614645473463</v>
       </c>
       <c r="X2" t="n">
-        <v>93.31119700329658</v>
+        <v>77.39408707444937</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.31119700329658</v>
+        <v>73.14836741450685</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="C3" t="n">
-        <v>69.74776341660552</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="D3" t="n">
-        <v>69.74776341660552</v>
+        <v>69.74776341660603</v>
       </c>
       <c r="E3" t="n">
-        <v>48.99309111344805</v>
+        <v>69.74776341660603</v>
       </c>
       <c r="F3" t="n">
-        <v>25.42965752675699</v>
+        <v>46.1843298299148</v>
       </c>
       <c r="G3" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940065932</v>
+        <v>1.866223940065945</v>
       </c>
       <c r="I3" t="n">
-        <v>3.224722227401132</v>
+        <v>24.96074519838202</v>
       </c>
       <c r="J3" t="n">
-        <v>6.95254536211292</v>
+        <v>28.68856833309383</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826834</v>
+        <v>35.0600118292493</v>
       </c>
       <c r="L3" t="n">
-        <v>21.89118092381344</v>
+        <v>43.62720389479447</v>
       </c>
       <c r="M3" t="n">
-        <v>44.98570218212934</v>
+        <v>53.62471294694161</v>
       </c>
       <c r="N3" t="n">
-        <v>55.24781555037011</v>
+        <v>63.88682631518244</v>
       </c>
       <c r="O3" t="n">
-        <v>64.63564441572967</v>
+        <v>73.27465518054207</v>
       </c>
       <c r="P3" t="n">
-        <v>72.17020472579335</v>
+        <v>80.80921549060581</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.86140060131989</v>
+        <v>85.84586952303943</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="X3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="Y3" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="C4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="D4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="E4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="F4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="G4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940065932</v>
+        <v>1.866223940065945</v>
       </c>
       <c r="J4" t="n">
-        <v>4.204940375576466</v>
+        <v>24.96074519838202</v>
       </c>
       <c r="K4" t="n">
-        <v>8.048169904421089</v>
+        <v>46.37481944561799</v>
       </c>
       <c r="L4" t="n">
-        <v>31.14269116273699</v>
+        <v>51.29283006492358</v>
       </c>
       <c r="M4" t="n">
-        <v>54.2372124210529</v>
+        <v>56.4781827070103</v>
       </c>
       <c r="N4" t="n">
-        <v>59.29926896714379</v>
+        <v>61.54023925310123</v>
       </c>
       <c r="O4" t="n">
-        <v>82.39379022545968</v>
+        <v>66.21586779101021</v>
       </c>
       <c r="P4" t="n">
-        <v>86.39459817943064</v>
+        <v>70.21667574498119</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700329658</v>
+        <v>93.31119700329727</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700329658</v>
+        <v>73.41094731235125</v>
       </c>
       <c r="S4" t="n">
-        <v>93.31119700329658</v>
+        <v>49.84751372566002</v>
       </c>
       <c r="T4" t="n">
-        <v>69.74776341660552</v>
+        <v>26.28408013896879</v>
       </c>
       <c r="U4" t="n">
-        <v>46.18432982991446</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="V4" t="n">
-        <v>22.6208962432234</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="W4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="X4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.866223940065932</v>
+        <v>25.42965752675718</v>
       </c>
     </row>
     <row r="5">
@@ -4555,58 +4555,58 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952726</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030269</v>
+        <v>18.98581709030264</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176022</v>
+        <v>35.56734164176017</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654181</v>
+        <v>56.13818908654175</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682886</v>
+        <v>79.02722044682881</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529546</v>
+        <v>124.2498119529545</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228476</v>
+        <v>142.9948879228475</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.0716593183938</v>
+        <v>157.0716593183937</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="C6" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="D6" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="E6" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F6" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G6" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441171</v>
+        <v>5.70652791044117</v>
       </c>
       <c r="J6" t="n">
         <v>12.29595456866669</v>
@@ -4670,28 +4670,28 @@
         <v>124.3581591730573</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506954</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506954</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443586</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="C7" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="D7" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219675</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>8.675578636310812</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="K7" t="n">
-        <v>49.57743165336289</v>
+        <v>82.21448502239211</v>
       </c>
       <c r="L7" t="n">
-        <v>58.2706740925039</v>
+        <v>90.90772746153313</v>
       </c>
       <c r="M7" t="n">
-        <v>67.43647936204704</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N7" t="n">
-        <v>76.38434226886255</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O7" t="n">
         <v>117.2861952859146</v>
@@ -4746,31 +4746,31 @@
         <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="U7" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="V7" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="W7" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="X7" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534641</v>
       </c>
     </row>
     <row r="8">
@@ -4792,34 +4792,34 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952697</v>
+        <v>7.922179662952712</v>
       </c>
       <c r="J8" t="n">
-        <v>18.98581709030266</v>
+        <v>18.98581709030268</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176021</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654179</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682885</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529546</v>
+        <v>124.2498119529545</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>127.8182329816055</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>127.8182329816055</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>40.31041306796762</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>81.21226608501969</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
         <v>160.929668948206</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.7923756428305</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>104.7923756428305</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>104.7923756428305</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>104.7923756428305</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>82.21448502239217</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>90.90772746153318</v>
+        <v>24.44078496259454</v>
       </c>
       <c r="M10" t="n">
-        <v>100.0735327310763</v>
+        <v>33.60659023213768</v>
       </c>
       <c r="N10" t="n">
-        <v>109.0213956378918</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2861952859146</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4992,22 +4992,22 @@
         <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1144.298223916359</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C11" t="n">
-        <v>1144.298223916359</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D11" t="n">
-        <v>1144.298223916359</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5077,16 +5077,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>2170.560772612438</v>
       </c>
       <c r="X11" t="n">
-        <v>1552.584347616706</v>
+        <v>2170.560772612438</v>
       </c>
       <c r="Y11" t="n">
-        <v>1144.298223916359</v>
+        <v>2170.560772612438</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5120,22 +5120,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.081764785142</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C13" t="n">
-        <v>616.081764785142</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D13" t="n">
-        <v>450.2037719866647</v>
+        <v>519.889284566483</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>350.1312808172202</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>173.4242267789764</v>
       </c>
       <c r="G13" t="n">
         <v>47.20655154895474</v>
@@ -5199,25 +5199,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>464.1452239003834</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L13" t="n">
-        <v>588.0160255186814</v>
+        <v>688.1212571728196</v>
       </c>
       <c r="M13" t="n">
-        <v>718.6204178572109</v>
+        <v>818.725649511349</v>
       </c>
       <c r="N13" t="n">
-        <v>1288.378132818745</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5229,22 +5229,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1536.329659438081</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C14" t="n">
-        <v>1536.329659438081</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D14" t="n">
-        <v>1100.419874612525</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E14" t="n">
-        <v>666.6451297708204</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>238.7777001800281</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1911.7706285715</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1549.153678505326</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.329659438081</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.329659438081</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.081764785142</v>
+        <v>750.8436067979059</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268367</v>
+        <v>578.2818952811308</v>
       </c>
       <c r="D16" t="n">
-        <v>443.520053268367</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E16" t="n">
-        <v>273.7620495191042</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F16" t="n">
-        <v>97.05499548086041</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
@@ -5439,22 +5439,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909403</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041292</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>701.7439652528263</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7092428694776</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2353.587728647968</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2353.587728647968</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1990.970778581794</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="Y17" t="n">
-        <v>1128.043535737734</v>
+        <v>1586.115323992828</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5609,10 +5609,10 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5652,40 +5652,40 @@
         <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
-        <v>450.2037719866647</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E19" t="n">
-        <v>450.2037719866647</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>273.496717948421</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>358.0754347909404</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1720.113561076154</v>
       </c>
       <c r="O19" t="n">
         <v>2173.32015736263</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>595.2911070472169</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C20" t="n">
-        <v>595.2911070472169</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>159.3813222216614</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>159.3813222216614</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>159.3813222216614</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5788,16 +5788,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1849.01926465316</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1849.01926465316</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>1429.876801232471</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y20" t="n">
-        <v>1021.590677532125</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895474</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.5014354710338</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C22" t="n">
-        <v>670.9397239542587</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="D22" t="n">
-        <v>505.0617311557814</v>
+        <v>325.0341406931118</v>
       </c>
       <c r="E22" t="n">
-        <v>505.0617311557814</v>
+        <v>325.0341406931118</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>148.327086654868</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.193340120866</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1467.692251924755</v>
+        <v>1456.672986427159</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>1035.320054190021</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1349.126238781879</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="C23" t="n">
-        <v>910.9837659653025</v>
+        <v>695.1038667701278</v>
       </c>
       <c r="D23" t="n">
-        <v>475.073981139747</v>
+        <v>259.1940819445722</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>259.1940819445722</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>259.1940819445722</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>259.1940819445722</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W23" t="n">
-        <v>1955.47212285877</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X23" t="n">
-        <v>1775.425809266787</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y23" t="n">
-        <v>1775.425809266787</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>888.1081691988504</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C25" t="n">
-        <v>715.5464576820754</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D25" t="n">
-        <v>715.5464576820754</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E25" t="n">
-        <v>545.7884539328127</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>369.0813998945689</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6150,22 +6150,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>601.5415720081297</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1185.722647426445</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N25" t="n">
-        <v>1755.480362387979</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6177,22 +6177,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2232.97308980672</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W25" t="n">
-        <v>1552.738213270317</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X25" t="n">
-        <v>1307.346458603729</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y25" t="n">
-        <v>1079.926787917838</v>
+        <v>922.7931199597051</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6259,19 +6259,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2145.517933689757</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.0856030486432</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C28" t="n">
-        <v>408.5238915318681</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D28" t="n">
-        <v>242.6458987333908</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E28" t="n">
-        <v>242.6458987333908</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F28" t="n">
-        <v>242.6458987333908</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H28" t="n">
         <v>110.3018381127067</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.331138940781</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.4344430832</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6417,19 +6417,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1896.604229088122</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1896.604229088122</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2360.327577447737</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C29" t="n">
-        <v>1922.185104631161</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D29" t="n">
-        <v>1486.275319805605</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E29" t="n">
-        <v>1052.5005749639</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>624.6331453731082</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>225.1304540525853</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001357</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y29" t="n">
-        <v>2360.327577447737</v>
+        <v>1181.370146306529</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>888.1081691988509</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>888.1081691988509</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
         <v>753.852136908379</v>
@@ -6618,31 +6618,31 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>767.3301446246915</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>897.9345369632209</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N31" t="n">
-        <v>1467.692251924755</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
@@ -6651,22 +6651,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399887</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W31" t="n">
-        <v>1552.738213270317</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X31" t="n">
-        <v>1307.34645860373</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y31" t="n">
-        <v>1079.926787917838</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1915.005753073567</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C32" t="n">
-        <v>1476.863280256991</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D32" t="n">
-        <v>1040.953495431435</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E32" t="n">
-        <v>607.1787505897303</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>179.311320998938</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895474</v>
@@ -6706,7 +6706,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,7 +6721,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
@@ -6739,13 +6739,13 @@
         <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1915.005753073567</v>
+        <v>2176.554825902915</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.005753073567</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y32" t="n">
-        <v>1915.005753073567</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>894.468396736399</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C34" t="n">
-        <v>721.9066852196239</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D34" t="n">
-        <v>556.0286924211466</v>
+        <v>519.889284566483</v>
       </c>
       <c r="E34" t="n">
-        <v>386.2706886718839</v>
+        <v>350.1312808172202</v>
       </c>
       <c r="F34" t="n">
-        <v>209.5636346336401</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6861,22 +6861,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>744.9929992049551</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M34" t="n">
-        <v>1329.17407462327</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N34" t="n">
-        <v>1708.047382044527</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O34" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6888,22 +6888,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U34" t="n">
-        <v>2118.080353351143</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V34" t="n">
-        <v>1831.124845221574</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W34" t="n">
-        <v>1559.098440807865</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X34" t="n">
-        <v>1313.706686141278</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y34" t="n">
-        <v>1086.287015455386</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1624.755105488881</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C35" t="n">
-        <v>1186.612632672305</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D35" t="n">
-        <v>750.7028478467491</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="V35" t="n">
-        <v>1849.01926465316</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="W35" t="n">
-        <v>1849.01926465316</v>
+        <v>2200.475587938389</v>
       </c>
       <c r="X35" t="n">
-        <v>1849.01926465316</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="Y35" t="n">
-        <v>1849.01926465316</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>903.0372729147116</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>730.4755613979365</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>564.5975685994592</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>394.8395648501965</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>218.1325108119527</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>53.39133042447111</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>53.39133042447111</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7098,22 +7098,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
         <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.4344430832</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.94094549648</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>2028.948289708806</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>1322.275562319591</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>1094.855891633699</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.028006962829</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C38" t="n">
-        <v>1495.885534146253</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D38" t="n">
-        <v>1059.975749320697</v>
+        <v>974.9670070110283</v>
       </c>
       <c r="E38" t="n">
-        <v>626.2010044789922</v>
+        <v>541.1922621693234</v>
       </c>
       <c r="F38" t="n">
-        <v>198.3335748882</v>
+        <v>541.1922621693234</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895474</v>
@@ -7335,22 +7335,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1340.193340120865</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1467.692251924755</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X40" t="n">
-        <v>1136.285270360843</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y40" t="n">
-        <v>1136.285270360843</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2319.861207662534</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C41" t="n">
-        <v>2013.98275358362</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D41" t="n">
-        <v>1578.072968758064</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.298223916359</v>
+        <v>602.5019560986557</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>174.6345265078634</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7453,10 +7453,10 @@
         <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>2319.861207662534</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y41" t="n">
-        <v>2319.861207662534</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.655226289377</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C43" t="n">
-        <v>299.093514772602</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D43" t="n">
-        <v>179.5506121696388</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E43" t="n">
-        <v>179.5506121696388</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F43" t="n">
         <v>179.5506121696388</v>
@@ -7572,22 +7572,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7599,22 +7599,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1538.101794175672</v>
+        <v>681.4266504665928</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.205539167272</v>
+        <v>681.4266504665928</v>
       </c>
       <c r="D44" t="n">
-        <v>1150.205539167272</v>
+        <v>245.5168656410373</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>245.5168656410373</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>245.5168656410373</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,34 +7666,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662535</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662535</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>1957.244257596361</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W44" t="n">
-        <v>1957.244257596361</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X44" t="n">
-        <v>1538.101794175672</v>
+        <v>1107.726220951501</v>
       </c>
       <c r="Y44" t="n">
-        <v>1538.101794175672</v>
+        <v>1107.726220951501</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
         <v>242.6458987333908</v>
@@ -7803,22 +7803,22 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.331138940781</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.4344430832</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
         <v>1657.620488527957</v>
@@ -7827,31 +7827,31 @@
         <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2028.948289708806</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2028.948289708806</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>21.95557875856653</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.22930525875641</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.79246650817469</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>5.066193008364763</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.96545941697527</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.74832799837507</v>
       </c>
       <c r="L4" t="n">
-        <v>18.36011175657611</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.09006930932244</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>18.60494214182522</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.188532095510581</v>
+        <v>20.52986788788442</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.14042390876192</v>
+        <v>11.14042390876186</v>
       </c>
       <c r="R6" t="n">
         <v>36.94091896479665</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.248872594224399</v>
+        <v>37.13925100285413</v>
       </c>
       <c r="K7" t="n">
-        <v>34.45295969778793</v>
+        <v>31.5293018639352</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8388,13 +8388,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8537,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.624666072174229</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.46456242451583</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>22.99211437686852</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>31.52930186393523</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>263.8716243249367</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520647</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>69.27619576520658</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>338.8290049886002</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>104.3008170116722</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>253.9135309266337</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>444.9969971592904</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>303.1049632594846</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464595</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>80.00897722411304</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>263.1722038422878</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>253.9135309266337</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464595</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10989,16 +10989,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>104.3008170116718</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11226,16 +11226,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>70.05088382580894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11460,7 +11460,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032072</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464605</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>21.45065049283514</v>
       </c>
       <c r="C2" t="n">
-        <v>13.21392250828502</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726475758</v>
+        <v>8.222887726475587</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142463608</v>
+        <v>6.109198142463438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2609560440601761</v>
+        <v>0.2609560440600056</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>212.9377632561311</v>
       </c>
       <c r="X11" t="n">
-        <v>375.0829218623506</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.1269275599054</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>38.1382701058853</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.8522272625549</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>22.06214419180498</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.57174484781618</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>113.7438090910202</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>181.2766729288957</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>202.9810887038073</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>103.0230384636513</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>132.5514575607269</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>72.29614307268241</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>284.454641441338</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>78.24207798330137</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.98443882875263</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>57.15668084986731</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,13 +24265,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>236.7051883304189</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>37.92262243404044</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>43.81843724330125</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>209.375027459659</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.3360729916735</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>199.3236757221607</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>90.87967246293438</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>349.3350351141586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>31.30574090292532</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>195.84521004236</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>264.7239426518341</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>258.9335821010543</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>100.6026038039997</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360256329768276</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200.0150572074224</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>51.4000694013242</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>56.34140261135323</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>231.623223818477</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>245.8919113014648</v>
+        <v>173.4861468346813</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.88260398784263</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>277.9630219615125</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>130.9413785502858</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>269.353969197998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>149.0473946475631</v>
       </c>
       <c r="D43" t="n">
-        <v>45.87173929355905</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.74375563009517</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>199.1804534561558</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.4142235926362</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>54.74153010489359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>597941.7487055281</v>
+        <v>597941.7487055282</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368180.5570456069</v>
+        <v>368180.557045607</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>368180.5570456069</v>
+        <v>368180.557045607</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>368180.5570456069</v>
+        <v>368180.557045607</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>368180.5570456071</v>
+        <v>368180.557045607</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>331619.2890919166</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315054</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315053</v>
@@ -26325,16 +26325,16 @@
         <v>196621.9641260216</v>
       </c>
       <c r="F2" t="n">
+        <v>196621.9641260217</v>
+      </c>
+      <c r="G2" t="n">
         <v>196621.9641260216</v>
       </c>
-      <c r="G2" t="n">
-        <v>196621.9641260217</v>
-      </c>
       <c r="H2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="I2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="J2" t="n">
         <v>196621.9641260217</v>
@@ -26346,13 +26346,13 @@
         <v>196621.9641260216</v>
       </c>
       <c r="M2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260217</v>
       </c>
       <c r="N2" t="n">
         <v>196621.9641260216</v>
       </c>
       <c r="O2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260217</v>
       </c>
       <c r="P2" t="n">
         <v>196621.9641260217</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168878</v>
+        <v>25672.80150168895</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088815</v>
+        <v>18763.31828088796</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182633</v>
+        <v>6103.578707182678</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749939</v>
+        <v>4629.330666749861</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="F4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="G4" t="n">
         <v>14728.7909942616</v>
@@ -26447,16 +26447,16 @@
         <v>14728.7909942616</v>
       </c>
       <c r="L4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="M4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="N4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="O4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="P4" t="n">
         <v>14728.79099426161</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413282</v>
+        <v>35449.86995413283</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26496,7 +26496,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25620.37345354119</v>
+        <v>-25634.26459689979</v>
       </c>
       <c r="C6" t="n">
-        <v>-14646.52738469785</v>
+        <v>-14646.52738469755</v>
       </c>
       <c r="D6" t="n">
-        <v>4116.790896190352</v>
+        <v>4116.790896190294</v>
       </c>
       <c r="E6" t="n">
-        <v>-376643.4176338596</v>
+        <v>-377197.2980770816</v>
       </c>
       <c r="F6" t="n">
-        <v>135842.0919221222</v>
+        <v>135288.2114789003</v>
       </c>
       <c r="G6" t="n">
-        <v>135842.0919221223</v>
+        <v>135288.2114789002</v>
       </c>
       <c r="H6" t="n">
-        <v>135842.0919221222</v>
+        <v>135288.2114789003</v>
       </c>
       <c r="I6" t="n">
-        <v>135842.0919221223</v>
+        <v>135288.2114789003</v>
       </c>
       <c r="J6" t="n">
-        <v>129738.5132149396</v>
+        <v>129184.6327717176</v>
       </c>
       <c r="K6" t="n">
-        <v>131212.7612553723</v>
+        <v>130658.8808121504</v>
       </c>
       <c r="L6" t="n">
-        <v>135842.0919221222</v>
+        <v>135288.2114789002</v>
       </c>
       <c r="M6" t="n">
-        <v>-912.8124609932347</v>
+        <v>-1466.692904215118</v>
       </c>
       <c r="N6" t="n">
-        <v>135842.0919221222</v>
+        <v>135288.2114789003</v>
       </c>
       <c r="O6" t="n">
-        <v>135842.0919221222</v>
+        <v>135288.2114789003</v>
       </c>
       <c r="P6" t="n">
-        <v>135842.0919221223</v>
+        <v>135288.2114789003</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443623</v>
+        <v>18.52934677443637</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26746,13 +26746,13 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26816,7 +26816,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443623</v>
+        <v>18.52934677443637</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613537</v>
+        <v>14.22375528613523</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326496</v>
+        <v>433.9488260326497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9872037967032</v>
+        <v>17.98720379670301</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670332</v>
+        <v>17.98720379670301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082415</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="K4" t="n">
-        <v>17.9872037967032</v>
+        <v>17.98720379670301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27460,22 +27460,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>82.06409730089999</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>70.81158671408797</v>
       </c>
       <c r="E3" t="n">
-        <v>72.63208494618991</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>59.22220074917585</v>
+        <v>59.22220074917568</v>
       </c>
       <c r="G3" t="n">
-        <v>61.16358400957294</v>
+        <v>63.94425768027104</v>
       </c>
       <c r="H3" t="n">
-        <v>40.93337470348447</v>
+        <v>17.60557545266015</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.08058333091455</v>
+        <v>62.08058333091454</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27557,7 +27557,7 @@
         <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028723</v>
+        <v>63.44071311946291</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.0666475106129</v>
+        <v>133.7388482597886</v>
       </c>
       <c r="T4" t="n">
-        <v>219.950085608407</v>
+        <v>219.9500856084069</v>
       </c>
       <c r="U4" t="n">
-        <v>252.3190489299024</v>
+        <v>274.8009697946371</v>
       </c>
       <c r="V4" t="n">
-        <v>260.7581537974497</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>248.7590147894455</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.02350065254669</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27706,13 +27706,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379492</v>
       </c>
       <c r="T6" t="n">
         <v>128.5928940176698</v>
@@ -27757,13 +27757,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398759</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.5101778475351</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27782,16 +27782,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8762992535017</v>
+        <v>146.0340017035184</v>
       </c>
       <c r="H7" t="n">
-        <v>137.9780290613614</v>
+        <v>96.66302601383403</v>
       </c>
       <c r="I7" t="n">
         <v>85.99716511640959</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27830,16 +27830,16 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205372</v>
       </c>
       <c r="F9" t="n">
         <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>24.44494263490342</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>172.0581349818139</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>157.097685947878</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28064,7 +28064,7 @@
         <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
         <v>275.6454491228296</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914056</v>
+        <v>0.07448983627914112</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937484</v>
+        <v>0.7628690357937541</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151569</v>
+        <v>2.871769413151591</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896712</v>
+        <v>6.322231741896759</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592733</v>
+        <v>9.475386511592804</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862048</v>
+        <v>11.75505483862057</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346454965</v>
+        <v>13.07976346454975</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187776</v>
+        <v>13.29140771187786</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237705</v>
+        <v>12.55069940237715</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923577</v>
+        <v>10.71173156923585</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489045</v>
+        <v>8.044064307489105</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169567</v>
+        <v>4.679172178169602</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210917</v>
+        <v>1.69743714421093</v>
       </c>
       <c r="T2" t="n">
-        <v>0.326079258311938</v>
+        <v>0.3260792583119404</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331244</v>
+        <v>0.005959186902331288</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086283</v>
+        <v>0.03985557608086313</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651753</v>
+        <v>0.3849209584651782</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257777</v>
+        <v>1.372220492257788</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850291</v>
+        <v>3.765477913850319</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4358015112681</v>
+        <v>6.435801511268148</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136467</v>
+        <v>8.653729359136532</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206774</v>
+        <v>10.09849399206782</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903108</v>
+        <v>10.36577107903115</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555114</v>
+        <v>9.482655419555185</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862307</v>
+        <v>7.610666979862364</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690491</v>
+        <v>5.087529325690529</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178485</v>
+        <v>2.474541820178503</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862016</v>
+        <v>0.7402998451862072</v>
       </c>
       <c r="T3" t="n">
-        <v>0.160645940431197</v>
+        <v>0.1606459404311983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373740977</v>
+        <v>0.002622077373740996</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0334135761506227</v>
+        <v>0.03341357615062295</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573548</v>
+        <v>0.297077067957357</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784181</v>
+        <v>1.004837362784189</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849025</v>
+        <v>2.362339833849043</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029135982</v>
+        <v>3.882050029136011</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248034</v>
+        <v>4.967687494248072</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501701</v>
+        <v>5.23772994150174</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394839</v>
+        <v>5.113188430394877</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108998927</v>
+        <v>4.722857108998962</v>
       </c>
       <c r="P4" t="n">
-        <v>4.04122015552622</v>
+        <v>4.041220155526251</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.79793136293987</v>
+        <v>2.797931362939891</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645271</v>
+        <v>1.502395887645283</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043703972</v>
+        <v>0.5823075043704016</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981151</v>
+        <v>0.1427670980981162</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124877</v>
+        <v>0.00182255869912489</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,7 +31770,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994722</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
         <v>9.695072128879938</v>
@@ -31840,7 +31840,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31849,13 +31849,13 @@
         <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183765</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31943,13 +31943,13 @@
         <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
         <v>0.0459051076813005</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,10 +32782,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32794,7 +32794,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -32806,22 +32806,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,10 +32888,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,7 +33256,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,7 +33493,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.56235976916781</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33754,22 +33754,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,19 +34441,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020171</v>
+        <v>2.459147934020193</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896712</v>
+        <v>6.322231741896756</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592731</v>
+        <v>9.475386511592804</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862049</v>
+        <v>11.75505483862058</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346454964</v>
+        <v>13.07976346454975</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187776</v>
+        <v>13.29140771187786</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237706</v>
+        <v>12.55069940237715</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923578</v>
+        <v>10.71173156923585</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489037</v>
+        <v>8.044064307489109</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169566</v>
+        <v>4.679172178169594</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257777</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850291</v>
+        <v>3.765477913850319</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268101</v>
+        <v>6.435801511268149</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136467</v>
+        <v>8.653729359136534</v>
       </c>
       <c r="M3" t="n">
-        <v>23.32779925082415</v>
+        <v>10.09849399206782</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903108</v>
+        <v>10.36577107903115</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555115</v>
+        <v>9.482655419555186</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862302</v>
+        <v>7.610666979862359</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.87999583386518</v>
+        <v>5.087529325690525</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178487</v>
+        <v>7.540734828543265</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849025</v>
+        <v>23.32779925082432</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029135983</v>
+        <v>21.63037802751108</v>
       </c>
       <c r="L4" t="n">
-        <v>23.32779925082415</v>
+        <v>4.967687494248075</v>
       </c>
       <c r="M4" t="n">
-        <v>23.32779925082415</v>
+        <v>5.23772994150174</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394842</v>
+        <v>5.113188430394878</v>
       </c>
       <c r="O4" t="n">
-        <v>23.32779925082414</v>
+        <v>4.722857108998966</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526219</v>
+        <v>4.041220155526247</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.986463458450444</v>
+        <v>23.32779925082431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075753</v>
       </c>
       <c r="K5" t="n">
         <v>16.74901469844195</v>
@@ -34950,10 +34950,10 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>2.425583501655539</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35035,7 +35035,7 @@
         <v>13.45287318408647</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.13331336509094</v>
+        <v>20.13331336509088</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.424624638897601</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>38.39134521367462</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829307</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154689</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N7" t="n">
         <v>9.038245360419708</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800722</v>
@@ -35178,16 +35178,16 @@
         <v>16.74901469844195</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260764</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
-        <v>23.49434324994151</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978145</v>
+        <v>22.18504210978143</v>
       </c>
       <c r="P8" t="n">
         <v>18.93442017160913</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>16.92129170904779</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752735</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752734</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
         <v>16.76186346679083</v>
@@ -35272,7 +35272,7 @@
         <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>30.74728974356677</v>
       </c>
       <c r="R9" t="n">
         <v>4.37408408273069</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41.31500304752735</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>38.39134521367465</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829314</v>
+        <v>10.311280079115</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154682</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35488,25 +35488,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>361.6495036861066</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366647</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>304.5047560030953</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125713</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,10 +35664,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35807,25 +35807,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35962,7 +35962,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35977,7 +35977,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>167.0540751263765</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>457.78444069341</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36123,10 +36123,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816035</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>236.2244456364494</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>372.8689666314435</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,16 +36357,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366647</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
-        <v>422.0603989642946</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512694</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,13 +36849,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>205.1309990607776</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37074,25 +37074,25 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>388.2942256789524</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>382.7003105265221</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37466,10 +37466,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
@@ -37478,13 +37478,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512694</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,16 +37542,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>236.224445636449</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,16 +37779,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>198.8376634256974</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38116,10 +38116,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>300.8399982398718</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38189,7 +38189,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512703</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
